--- a/pred_ohlcv/54_21/2020-01-22 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4127.109492177784</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4272.898514347784</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4175.989614347784</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4116.202314347784</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4074.542350621688</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4107.721850621689</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4642.365750621689</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3279.677375911159</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3278.677375911159</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3053.30391859556</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3559.898925004266</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3538.929525004266</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3617.439225004266</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3638.680125004266</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3412.935125004266</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3605.986525004266</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3596.986625004266</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3716.918225004266</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4103.797425004266</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4061.396265317746</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4315.819265317746</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4538.651965317746</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4721.461176875535</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5446.864890752327</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5400.077590752327</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-5400.877590752327</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5399.877590752327</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5498.877390752326</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2217.153298326059</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2651.672798326059</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2657.981098326059</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2459.413898326059</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2448.923898326059</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2506.36059832606</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-2635.266598326059</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2626.30799832606</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2515.92939832606</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2546.84439832606</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2532.85959832606</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-2570.51309832606</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-2302.13139832606</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-2374.61479832606</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4127.109492177784</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4370.143614347785</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4331.680514347785</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4308.831314347784</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4314.780014347784</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4250.544714347784</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4286.624614347784</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4272.898514347784</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4173.015314347784</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4175.989614347784</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4113.852414347783</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4116.202314347784</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4074.542350621688</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4107.721850621689</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4378.351850621689</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4395.745150621689</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4602.365750621689</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4642.365750621689</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4614.009050621688</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4589.421850621688</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4596.988950621689</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-4613.684550621689</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4902.360250621688</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4704.617850621688</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3551.543502897211</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3552.057302897211</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3581.467602897211</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3778.728102897211</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3697.292202897211</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3499.761302897211</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3279.677375911159</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-3278.677375911159</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3169.597375911159</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3111.557412186854</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3053.30391859556</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3559.898925004266</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3538.929525004266</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3617.439225004266</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3638.680125004266</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3412.935125004266</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3605.986525004266</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3811.173925004266</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4103.797425004266</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4061.396265317746</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4315.819265317746</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4538.856565317746</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4538.651965317746</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4509.091476875535</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4498.679776875535</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4561.016076875535</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4618.110676875535</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4618.109176875535</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-4617.121276875535</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4617.121276875535</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4615.129376875535</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-4644.016976875535</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4644.016976875535</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4678.406176875535</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4741.431276875534</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4721.461176875535</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4805.327476875535</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4803.987476875534</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4800.161576875535</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-4795.821576875534</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4737.357676875535</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4783.223576875534</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4723.223576875534</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-4603.223576875534</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4603.223576875534</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-4603.223576875534</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-4663.223576875534</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-4652.223576875534</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-4652.223576875534</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-4549.719676875535</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-4473.104876875535</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4473.104876875535</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-4476.955776875535</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-4476.955776875535</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-4458.135376875535</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-4460.058376875535</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4443.218876875535</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4429.163876875535</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-4431.508176875534</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-4431.508176875534</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-4462.959776875535</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-4458.573576875535</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4462.095176875535</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4458.312476875535</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4477.132876875535</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4464.673076875535</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4468.816576875535</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-4462.416576875536</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-4481.094676875536</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-4478.125790752325</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-4480.348890752325</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4492.348890752325</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4489.743790752325</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-4491.409490752325</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-4756.650490752325</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-4753.584790752325</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-4765.650790752325</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-5737.644290752325</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-5335.671690752325</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-5335.771690752325</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-5335.871690752326</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-5335.971690752326</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5372.531690752327</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5446.864890752327</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5400.077590752327</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-5400.877590752327</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5399.877590752327</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5499.877390752326</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5498.877390752326</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-4628.672190752326</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-4363.447476875537</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3652.53619832606</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3692.069598326059</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3896.56769832606</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3353.560598326059</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3265.330598326059</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2662.159898326059</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2662.159898326059</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2602.756598326059</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-2507.452298326059</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2533.941298326059</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2217.153298326059</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2651.672798326059</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2657.981098326059</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-2459.413898326059</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2448.923898326059</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2506.36059832606</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-2566.90939832606</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-2635.266598326059</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2626.30799832606</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2620.54929832606</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2635.02669832606</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2515.92939832606</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2546.84439832606</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2544.54879832606</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2532.85959832606</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-2539.59809832606</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-2570.51309832606</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-2570.42449832606</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-2302.13139832606</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-2341.68929832606</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-2374.61479832606</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-2770.10809832606</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3065.97079832606</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-3005.17499832606</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-2989.58579832606</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-2988.5559384845</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3014.783838484499</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-3018.490838484499</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
